--- a/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1229,13 +1229,13 @@
       <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" t="s">
         <v>15</v>
       </c>
       <c r="N4" s="6" t="s">

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
@@ -21,18 +21,24 @@
   <si>
     <t>巡检标准表数据
 填写须知：
-1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
+1.请勿增加、删除、或修改表格中的字段顺序、字段名称；其次删除填写的数据，要直接删除整行，不然导入会失败
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 字段说明：
 1.巡视标准表名称：必填字段；
 2.适用专业：必填字段，且系统中已存在；
-3.是否与设备类型相关：必填字段，且只能填："是"、"否"；
-4.生效状态：必填字段，且只能填："未生效"、"生效"；
-5.设备类型名称：当“是否与设备类型相关”中填了“是”，为必填字段，反之不是必填字段；
-6.配置项：组件非必填，如果需要添加配置项，则标红的字段必填；
-7.层级类型：必填字段，只能填："一级"，"子级"
-8.父级：当层级类型填了"一级"，为必填字段，填一级的名称
-9.是否为巡视项目，必填项，只能填："是","否"</t>
+3.适用子系统：非必填，如果选择，则只能是该专业下的子系统
+4.是否与设备类型相关：必填字段，且只能选："是"、"否"；
+5.生效状态：必填字段，且只能选："启用"、"停用"；
+6.设备类型：非必填，当“是否与设备类型相关”中选择“是”，为必填字段，反之不是必填字段；
+7.配置项：非必填，如果需要添加配置项，则标红的字段必填；
+8.层级类型：必填字段，只能选："一级"，"子级"
+9.父级：必填字段，当层级类型填了"一级"，父级则只能填"无"，当层级类型填"一级"，则父级填写的是对应一级的巡视项内容
+10.是否为巡视项目，必填项，只能选："是","否",填写否，则质量标准、检查值类型、检查值是否必填、关联数据字典、数据校验表达式不用填写，反之可以填写
+11.内容排序：非必填，填写只能是数字
+12.关联数据字典：非必填，当检查值类型选中"选择项"，可以填写，反之不用填写
+13.数据校验表达式：非必填，当检查值类型选中"输入项"，可以填写，反之不用填写
+14.层级类型注意：子级类型的数据，在"是否为巡视项目"里，只能选"是"；
+15.设备类型选择需要注意：当适用专业选择、是否与设备类型相关选"是"，设备类型只能选择该专业下的设备类型；当适用专业、适用子系统都选择，设备类型只能选择该专业的子系统下的设备类型</t>
   </si>
   <si>
     <t>巡视标准表名称</t>
@@ -1100,7 +1106,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1148,7 +1154,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" ht="192" customHeight="1" spans="1:21">
+    <row r="2" ht="271" customHeight="1" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="27015" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="巡检标准表错误模板" sheetId="1" r:id="rId1"/>
@@ -26,19 +26,19 @@
 字段说明：
 1.巡视标准表名称：必填字段；
 2.适用专业：必填字段，且系统中已存在；
-3.适用子系统：非必填，如果选择，则只能是该专业下的子系统
-4.是否与设备类型相关：必填字段，且只能选："是"、"否"；
+3.适用子系统：非必填，如果选择，则只能是该专业下的子系统；
+4.是否与设备类型相关：必填字段，且只能选："是"、"否"；选择"是"，设备类型必填，反之不用填写；
 5.生效状态：必填字段，且只能选："启用"、"停用"；
 6.设备类型：非必填，当“是否与设备类型相关”中选择“是”，为必填字段，反之不是必填字段；
 7.配置项：非必填，如果需要添加配置项，则标红的字段必填；
-8.层级类型：必填字段，只能选："一级"，"子级"
-9.父级：必填字段，当层级类型填了"一级"，父级则只能填"无"，当层级类型填"一级"，则父级填写的是对应一级的巡视项内容
-10.是否为巡视项目，必填项，只能选："是","否",填写否，则质量标准、检查值类型、检查值是否必填、关联数据字典、数据校验表达式不用填写，反之可以填写
-11.内容排序：非必填，填写只能是数字
-12.关联数据字典：非必填，当检查值类型选中"选择项"，可以填写，反之不用填写
-13.数据校验表达式：非必填，当检查值类型选中"输入项"，可以填写，反之不用填写
+8.层级类型：必填字段，只能选："一级"，"子级"；
+9.父级：必填字段，当层级类型选了"一级"，父级则只能填"无"，当层级类型选"子级"，则父级填写的是对应一级的巡视项内容；
+10.是否为巡视项目，必填项，只能选："是","否",填写否，则质量标准、检查值类型、检查值是否必填、关联数据字典、数据校验表达式不用填写，反之可以填写；
+11.内容排序：非必填，填写只能是数字；
+12.关联数据字典：非必填，当检查值类型选中"选择项"，可以填写，反之不用填写；
+13.数据校验表达式：非必填，当检查值类型选中"输入项"，可以填写，反之不用填写；
 14.层级类型注意：子级类型的数据，在"是否为巡视项目"里，只能选"是"；
-15.设备类型选择需要注意：当适用专业选择、是否与设备类型相关选"是"，设备类型只能选择该专业下的设备类型；当适用专业、适用子系统都选择，设备类型只能选择该专业的子系统下的设备类型</t>
+15.设备类型选择需要注意：当适用专业选择、是否与设备类型相关选"是"，设备类型只能选择该专业下的设备类型；当适用专业、适用子系统都选择，是否与设备类型相关选"是"，设备类型只能选择该专业的子系统下的设备类型；</t>
   </si>
   <si>
     <t>巡视标准表名称</t>
@@ -1105,8 +1105,8 @@
   <sheetPr/>
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27015" windowHeight="8385"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="巡检标准表错误模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>巡检标准表数据模板</t>
   </si>
@@ -27,6 +27,7 @@
 1.巡视标准表名称：必填字段；
 2.适用专业：必填字段，且系统中已存在；
 3.适用子系统：非必填，如果选择，则只能是该专业下的子系统；
+4.标准表类型：必填字段，且只能选："应急"、"车载"、"正线"、"车辆段"；
 4.是否与设备类型相关：必填字段，且只能选："是"、"否"；选择"是"，设备类型必填，反之不用填写；
 5.生效状态：必填字段，且只能选："启用"、"停用"；
 6.设备类型：非必填，当“是否与设备类型相关”中选择“是”，为必填字段，反之不是必填字段；
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>适用子系统</t>
+  </si>
+  <si>
+    <t>标准表类型</t>
   </si>
   <si>
     <t>是否与设备类型相关</t>
@@ -732,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +745,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,33 +1110,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="9" max="10" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
-    <col min="12" max="12" width="13.25" customWidth="1"/>
-    <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="14" width="14.875" customWidth="1"/>
-    <col min="15" max="15" width="14.625" customWidth="1"/>
-    <col min="16" max="16" width="12.875" customWidth="1"/>
-    <col min="17" max="17" width="15.25" customWidth="1"/>
-    <col min="18" max="18" width="10.875" customWidth="1"/>
-    <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="22" max="22" width="23.25" customWidth="1"/>
+    <col min="3" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="10" max="11" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="15.25" customWidth="1"/>
+    <col min="19" max="19" width="10.875" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="23" max="23" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,8 +1160,9 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
-    <row r="2" ht="271" customHeight="1" spans="1:21">
+    <row r="2" ht="271" customHeight="1" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1178,8 +1186,9 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1198,10 +1207,12 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1209,94 +1220,98 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="R4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+    <row r="5" spans="1:23">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="G3:N3"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="H3:O3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>巡检标准表数据模板</t>
   </si>
@@ -27,19 +27,20 @@
 1.巡视标准表名称：必填字段；
 2.适用专业：必填字段，且系统中已存在；
 3.适用子系统：非必填，如果选择，则只能是该专业下的子系统；
-4.标准表类型：必填字段，且只能选："应急"、"车载"、"正线"、"车辆段"；
-4.是否与设备类型相关：必填字段，且只能选："是"、"否"；选择"是"，设备类型必填，反之不用填写；
-5.生效状态：必填字段，且只能选："启用"、"停用"；
-6.设备类型：非必填，当“是否与设备类型相关”中选择“是”，为必填字段，反之不是必填字段；
-7.配置项：非必填，如果需要添加配置项，则标红的字段必填；
-8.层级类型：必填字段，只能选："一级"，"子级"；
-9.父级：必填字段，当层级类型选了"一级"，父级则只能填"无"，当层级类型选"子级"，则父级填写的是对应一级的巡视项内容；
-10.是否为巡视项目，必填项，只能选："是","否",填写否，则质量标准、检查值类型、检查值是否必填、关联数据字典、数据校验表达式不用填写，反之可以填写；
-11.内容排序：非必填，填写只能是数字；
-12.关联数据字典：非必填，当检查值类型选中"选择项"，可以填写，反之不用填写；
-13.数据校验表达式：非必填，当检查值类型选中"输入项"，可以填写，反之不用填写；
-14.层级类型注意：子级类型的数据，在"是否为巡视项目"里，只能选"是"；
-15.设备类型选择需要注意：当适用专业选择、是否与设备类型相关选"是"，设备类型只能选择该专业下的设备类型；当适用专业、适用子系统都选择，是否与设备类型相关选"是"，设备类型只能选择该专业的子系统下的设备类型；</t>
+4.适用部门：必填字段，多个部门使用中文逗号"，"隔开；
+5.标准表类型：必填字段，且只能选："应急"、"车载"、"正线"、"车辆段"；
+6.是否与设备类型相关：必填字段，且只能选："是"、"否"；选择"是"，设备类型必填，反之不用填写；
+7.生效状态：必填字段，且只能选："启用"、"停用"；
+8.设备类型：非必填，当“是否与设备类型相关”中选择“是”，为必填字段，反之不是必填字段；
+9.配置项：非必填，如果需要添加配置项，则标红的字段必填；
+10.层级类型：必填字段，只能选："一级"，"子级"；
+11.父级：必填字段，当层级类型选了"一级"，父级则只能填"无"，当层级类型选"子级"，则父级填写的是对应一级的巡视项内容；
+12.是否为巡视项目，必填项，只能选："是","否",填写否，则质量标准、检查值类型、检查值是否必填、关联数据字典、数据校验表达式不用填写，反之可以填写；
+13.内容排序：非必填，填写只能是数字；
+14.关联数据字典：非必填，当检查值类型选中"选择项"，可以填写，反之不用填写；
+15.数据校验表达式：非必填，当检查值类型选中"输入项"，可以填写，反之不用填写；
+16.层级类型注意：子级类型的数据，在"是否为巡视项目"里，只能选"是"；
+17.设备类型选择需要注意：当适用专业选择、是否与设备类型相关选"是"，设备类型只能选择该专业下的设备类型；当适用专业、适用子系统都选择，是否与设备类型相关选"是"，设备类型只能选择该专业的子系统下的设备类型；</t>
   </si>
   <si>
     <t>巡视标准表名称</t>
@@ -49,6 +50,9 @@
   </si>
   <si>
     <t>适用子系统</t>
+  </si>
+  <si>
+    <t>适用部门</t>
   </si>
   <si>
     <t>标准表类型</t>
@@ -752,10 +756,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1110,33 +1114,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="10" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
-    <col min="14" max="14" width="11.625" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="14.625" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="10.875" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="23" max="23" width="23.25" customWidth="1"/>
+    <col min="3" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="11" max="12" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="14.875" customWidth="1"/>
+    <col min="17" max="17" width="14.625" customWidth="1"/>
+    <col min="18" max="18" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="15.25" customWidth="1"/>
+    <col min="20" max="20" width="10.875" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="24" max="24" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,8 +1165,9 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
-    <row r="2" ht="271" customHeight="1" spans="1:22">
+    <row r="2" ht="308" customHeight="1" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1187,8 +1192,9 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1210,10 +1216,12 @@
       <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1221,43 +1229,42 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="1"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
@@ -1266,45 +1273,49 @@
       <c r="Q4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+    <row r="5" spans="1:24">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="H3:O3"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="I3:P3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -1312,6 +1323,7 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
@@ -30,7 +30,7 @@
 4.适用部门：必填字段，多个部门使用中文逗号"，"隔开；
 5.标准表类型：必填字段，且只能选："应急"、"车载"、"正线"、"车辆段"；
 6.是否与设备类型相关：必填字段，且只能选："是"、"否"；选择"是"，设备类型必填，反之不用填写；
-7.生效状态：必填字段，且只能选："启用"、"停用"；
+7.生效状态：必填字段，且只能选："生效"、"未生效"；
 8.设备类型：非必填，当“是否与设备类型相关”中选择“是”，为必填字段，反之不是必填字段；
 9.配置项：非必填，如果需要添加配置项，则标红的字段必填；
 10.层级类型：必填字段，只能选："一级"，"子级"；
@@ -740,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,9 +749,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1116,8 +1113,8 @@
   <sheetPr/>
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1230,86 +1227,86 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="巡检标准表错误模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>巡检标准表数据模板</t>
   </si>
@@ -40,7 +40,8 @@
 14.关联数据字典：非必填，当检查值类型选中"选择项"，可以填写，反之不用填写；
 15.数据校验表达式：非必填，当检查值类型选中"输入项"，可以填写，反之不用填写；
 16.层级类型注意：子级类型的数据，在"是否为巡视项目"里，只能选"是"；
-17.设备类型选择需要注意：当适用专业选择、是否与设备类型相关选"是"，设备类型只能选择该专业下的设备类型；当适用专业、适用子系统都选择，是否与设备类型相关选"是"，设备类型只能选择该专业的子系统下的设备类型；</t>
+17.设备类型选择需要注意：当适用专业选择、是否与设备类型相关选"是"，设备类型只能选择该专业下的设备类型；当适用专业、适用子系统都选择，是否与设备类型相关选"是"，设备类型只能选择该专业的子系统下的设备类型；
+18.注：#，代表数值；&amp;，代表文本；$，代表时间；在上输入框内输入检查内容，需要填写具体的检查值时用占位表示；占位由特殊字符 # 或 &amp; 或 $ 组成；比如电压#V,特殊字符#代表需要填的检查值；不同的字符代表不同的类型；</t>
   </si>
   <si>
     <t>巡视标准表名称</t>
@@ -101,12 +102,18 @@
   </si>
   <si>
     <t>数据校验表达式</t>
+  </si>
+  <si>
+    <t>检查值</t>
+  </si>
+  <si>
+    <t>程序及方法</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -140,34 +147,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -181,14 +160,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,6 +204,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -278,7 +264,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,49 +306,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,121 +444,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,21 +497,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,6 +529,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,148 +602,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -766,52 +773,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1113,8 +1120,8 @@
   <sheetPr/>
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1164,7 +1171,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" ht="308" customHeight="1" spans="1:23">
+    <row r="2" ht="318" customHeight="1" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1276,8 +1283,12 @@
       <c r="S4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="T4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardTemplate.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="巡检标准表错误模板" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>巡检标准表数据模板</t>
   </si>
@@ -109,11 +122,14 @@
   <si>
     <t>程序及方法</t>
   </si>
+  <si>
+    <t>巡检结果关联的数据字典</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1120,8 +1136,8 @@
   <sheetPr/>
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W2"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1140,7 +1156,7 @@
     <col min="18" max="18" width="12.875" customWidth="1"/>
     <col min="19" max="19" width="15.25" customWidth="1"/>
     <col min="20" max="20" width="10.875" customWidth="1"/>
-    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="22" max="22" width="21.375" customWidth="1"/>
     <col min="24" max="24" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1289,7 +1305,9 @@
       <c r="U4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="6"/>
+      <c r="V4" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
     </row>
